--- a/Run-Env/iManager/src/main/webapp/template/Model_Define.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/Model_Define.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkh\Desktop\작업\2021\2021.01.26_신한은행POC\모델 엑셀\01. 또 수정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iGate-workspace\Git\iGate_v5\Custom\iManager\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>그룹</t>
   </si>
@@ -253,6 +253,10 @@
   <si>
     <t>기타속성</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타도메인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -651,14 +655,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -668,6 +666,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1032,7 +1039,7 @@
       <pane xSplit="17" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:R1"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,26 +1063,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1086,10 +1093,10 @@
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,11 +1112,13 @@
       <c r="L2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="34"/>
       <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1127,10 +1136,10 @@
       <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,9 +1157,9 @@
       <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
@@ -42481,9 +42490,9 @@
   <mergeCells count="5">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
